--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.78116200000001</v>
+        <v>127.2231523333333</v>
       </c>
       <c r="H2">
-        <v>257.343486</v>
+        <v>381.669457</v>
       </c>
       <c r="I2">
-        <v>0.6103818382160713</v>
+        <v>0.6991094561571135</v>
       </c>
       <c r="J2">
-        <v>0.6103818382160713</v>
+        <v>0.6991094561571135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.80691533333334</v>
+        <v>3.113887</v>
       </c>
       <c r="N2">
-        <v>86.42074600000001</v>
+        <v>9.341661</v>
       </c>
       <c r="O2">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="P2">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="Q2">
-        <v>2471.090670928951</v>
+        <v>396.1585201497864</v>
       </c>
       <c r="R2">
-        <v>22239.81603836056</v>
+        <v>3565.426681348077</v>
       </c>
       <c r="S2">
-        <v>0.5948375900433185</v>
+        <v>0.5630037050267597</v>
       </c>
       <c r="T2">
-        <v>0.5948375900433185</v>
+        <v>0.5630037050267597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.78116200000001</v>
+        <v>127.2231523333333</v>
       </c>
       <c r="H3">
-        <v>257.343486</v>
+        <v>381.669457</v>
       </c>
       <c r="I3">
-        <v>0.6103818382160713</v>
+        <v>0.6991094561571135</v>
       </c>
       <c r="J3">
-        <v>0.6103818382160713</v>
+        <v>0.6991094561571135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.25834</v>
       </c>
       <c r="O3">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="P3">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="Q3">
-        <v>64.57434313036001</v>
+        <v>95.77104461348668</v>
       </c>
       <c r="R3">
-        <v>581.1690881732401</v>
+        <v>861.9394015213801</v>
       </c>
       <c r="S3">
-        <v>0.01554424817275273</v>
+        <v>0.1361057511303538</v>
       </c>
       <c r="T3">
-        <v>0.01554424817275273</v>
+        <v>0.1361057511303538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>33.055087</v>
       </c>
       <c r="I4">
-        <v>0.07840192529859551</v>
+        <v>0.06054748021347716</v>
       </c>
       <c r="J4">
-        <v>0.07840192529859551</v>
+        <v>0.06054748021347715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.80691533333334</v>
+        <v>3.113887</v>
       </c>
       <c r="N4">
-        <v>86.42074600000001</v>
+        <v>9.341661</v>
       </c>
       <c r="O4">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="P4">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="Q4">
-        <v>317.4050308483225</v>
+        <v>34.30993523105634</v>
       </c>
       <c r="R4">
-        <v>2856.645277634902</v>
+        <v>308.789417079507</v>
       </c>
       <c r="S4">
-        <v>0.07640530792278233</v>
+        <v>0.0487598263619556</v>
       </c>
       <c r="T4">
-        <v>0.07640530792278233</v>
+        <v>0.04875982636195559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.055087</v>
       </c>
       <c r="I5">
-        <v>0.07840192529859551</v>
+        <v>0.06054748021347716</v>
       </c>
       <c r="J5">
-        <v>0.07840192529859551</v>
+        <v>0.06054748021347715</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>2.25834</v>
       </c>
       <c r="O5">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="P5">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="Q5">
         <v>8.294402797286667</v>
@@ -756,10 +756,10 @@
         <v>74.64962517558</v>
       </c>
       <c r="S5">
-        <v>0.001996617375813167</v>
+        <v>0.01178765385152157</v>
       </c>
       <c r="T5">
-        <v>0.001996617375813167</v>
+        <v>0.01178765385152156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>131.212081</v>
       </c>
       <c r="I6">
-        <v>0.3112162364853332</v>
+        <v>0.2403430636294094</v>
       </c>
       <c r="J6">
-        <v>0.3112162364853332</v>
+        <v>0.2403430636294094</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.80691533333334</v>
+        <v>3.113887</v>
       </c>
       <c r="N6">
-        <v>86.42074600000001</v>
+        <v>9.341661</v>
       </c>
       <c r="O6">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="P6">
-        <v>0.974533567023909</v>
+        <v>0.8053155340245229</v>
       </c>
       <c r="Q6">
-        <v>1259.938436025825</v>
+        <v>136.1931977562823</v>
       </c>
       <c r="R6">
-        <v>11339.44592423243</v>
+        <v>1225.738779806541</v>
       </c>
       <c r="S6">
-        <v>0.3032906690578082</v>
+        <v>0.1935520026358077</v>
       </c>
       <c r="T6">
-        <v>0.3032906690578082</v>
+        <v>0.1935520026358077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>131.212081</v>
       </c>
       <c r="I7">
-        <v>0.3112162364853332</v>
+        <v>0.2403430636294094</v>
       </c>
       <c r="J7">
-        <v>0.3112162364853332</v>
+        <v>0.2403430636294094</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.25834</v>
       </c>
       <c r="O7">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="P7">
-        <v>0.02546643297609089</v>
+        <v>0.1946844659754771</v>
       </c>
       <c r="Q7">
         <v>32.92461011172666</v>
@@ -880,10 +880,10 @@
         <v>296.3214910055401</v>
       </c>
       <c r="S7">
-        <v>0.007925567427524989</v>
+        <v>0.04679106099360166</v>
       </c>
       <c r="T7">
-        <v>0.007925567427524989</v>
+        <v>0.04679106099360166</v>
       </c>
     </row>
   </sheetData>
